--- a/biology/Zoologie/Juiaparus_batus/Juiaparus_batus.xlsx
+++ b/biology/Zoologie/Juiaparus_batus/Juiaparus_batus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Juiaparus batus est une espèce d'insectes coléoptères de la famille des Cerambycidae, sous-famille des Cerambycinae et de la tribu des Cerambycini.
 </t>
@@ -511,11 +523,48 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Juiaparus batus a été décrite par l'entomologiste suédois Carl von Linné en 1758 sous le nom initial de Cerambyx batus.
-Synonymie
-Cerambyx batus Linnaeus, 1758 - protonyme
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Juiaparus batus a été décrite par l'entomologiste suédois Carl von Linné en 1758 sous le nom initial de Cerambyx batus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Juiaparus_batus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Juiaparus_batus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cerambyx batus Linnaeus, 1758 - protonyme
 Hamaticherus batus (Serville, 1834)
 Plocaederus batus (Sturm, 1843)
 Hammaticherus batus (Lacordaire, 1869)
@@ -524,31 +573,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Juiaparus_batus</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Juiaparus_batus</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Il existe deux sous espèces :
 Juiaparus batus batus (Linnaeus, 1758)
@@ -556,31 +607,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Juiaparus_batus</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Juiaparus_batus</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Répartition [1]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Argentine, Bolivie, Brésil, Colombie, Guyane, Guyana, Honduras, Mexique, Panama, Paraguay, Surinam, Uruguay, Venezuela.</t>
         </is>
